--- a/data/Gorbea.xlsx
+++ b/data/Gorbea.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de la Araucanía, ESSAR S.A.</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F109" t="n">
